--- a/analysis/Table5-Regional-Prevalence.xlsx
+++ b/analysis/Table5-Regional-Prevalence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\Undergrad\COOP\CANHEART\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FA84C-5F4F-447E-9155-DECD2D8100C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E6C13-0F11-4140-B0C7-010E82C0CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="28">
   <si>
     <t>Hypertension</t>
   </si>
@@ -99,12 +99,38 @@
   <si>
     <t>Risk factor; provinces and territories</t>
   </si>
+  <si>
+    <t>Data source: CCHS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Prevalence of risk factors, by provinces and territories in Canada, from 2000 to 2018.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,6 +148,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -260,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,6 +304,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -295,13 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -600,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,31 +649,35 @@
     <col min="2" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1">
         <v>2001</v>
       </c>
@@ -664,49 +705,49 @@
       <c r="J3" s="1">
         <v>2017</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -744,7 +785,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -782,7 +823,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
@@ -820,7 +861,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -858,7 +899,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
@@ -896,7 +937,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
@@ -934,7 +975,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
@@ -972,7 +1013,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -1010,7 +1051,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
@@ -1048,7 +1089,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
@@ -1086,7 +1127,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
@@ -1124,45 +1165,45 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2">
@@ -1200,7 +1241,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2">
@@ -1238,7 +1279,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2">
@@ -1276,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2">
@@ -1314,7 +1355,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2">
@@ -1352,7 +1393,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2">
@@ -1390,7 +1431,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="2">
@@ -1428,7 +1469,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="2">
@@ -1466,7 +1507,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2">
@@ -1504,7 +1545,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="2">
@@ -1542,7 +1583,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="2">
@@ -1580,45 +1621,45 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="B28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2">
@@ -1656,7 +1697,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2">
@@ -1694,7 +1735,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2">
@@ -1732,7 +1773,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2">
@@ -1770,7 +1811,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2">
@@ -1808,7 +1849,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="2">
@@ -1846,7 +1887,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2">
@@ -1884,7 +1925,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="2">
@@ -1922,7 +1963,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="2">
@@ -1960,7 +2001,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="2">
@@ -1998,7 +2039,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="2">
@@ -2036,45 +2077,45 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="B40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2">
@@ -2112,7 +2153,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="2">
@@ -2150,7 +2191,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="2">
@@ -2188,7 +2229,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="2">
@@ -2226,7 +2267,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="2">
@@ -2264,7 +2305,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="2">
@@ -2302,7 +2343,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="2">
@@ -2340,7 +2381,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="2">
@@ -2378,7 +2419,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="2">
@@ -2416,7 +2457,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="2">
@@ -2454,7 +2495,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="2">
@@ -2492,45 +2533,45 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="B52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="2">
@@ -2568,7 +2609,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="2">
@@ -2606,7 +2647,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2">
@@ -2644,7 +2685,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="2">
@@ -2682,7 +2723,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="2">
@@ -2720,7 +2761,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="2">
@@ -2758,7 +2799,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="2">
@@ -2796,7 +2837,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="2">
@@ -2834,7 +2875,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2">
@@ -2872,7 +2913,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="2">
@@ -2910,7 +2951,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="2">
@@ -2948,45 +2989,45 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="B64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="2">
@@ -3024,7 +3065,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="2">
@@ -3062,7 +3103,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="2">
@@ -3100,7 +3141,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="2">
@@ -3138,7 +3179,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="2">
@@ -3176,7 +3217,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="2">
@@ -3214,7 +3255,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="2">
@@ -3252,7 +3293,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="2">
@@ -3290,7 +3331,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="2">
@@ -3328,7 +3369,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="2">
@@ -3366,7 +3407,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="2">
@@ -3404,45 +3445,45 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="B76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="L76" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3480,7 +3521,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3518,7 +3559,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3556,7 +3597,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3594,7 +3635,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3632,7 +3673,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3670,7 +3711,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3708,7 +3749,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3746,7 +3787,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3784,7 +3825,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3822,7 +3863,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3857,6 +3898,11 @@
       </c>
       <c r="L87" s="3">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
